--- a/data/pigment_molar_ratios.xlsx
+++ b/data/pigment_molar_ratios.xlsx
@@ -916,7 +916,7 @@
     <t>Zapata et al. 2004</t>
   </si>
   <si>
-    <t>Pavlovophytes</t>
+    <t>Prymnesiophytes</t>
   </si>
   <si>
     <t>Chrysotila</t>
@@ -931,13 +931,13 @@
     <t>HAPTO_12</t>
   </si>
   <si>
-    <t>Prymnesiophytes</t>
-  </si>
-  <si>
     <t>Chrysotila roscoffensis</t>
   </si>
   <si>
     <t>Pleurochrysis roscoffensis</t>
+  </si>
+  <si>
+    <t>Pavlovophytes</t>
   </si>
   <si>
     <t>Diacronema</t>
@@ -1195,9 +1195,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -1254,14 +1254,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1276,62 +1314,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1354,21 +1338,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1382,8 +1381,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1404,7 +1404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1416,7 +1422,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,55 +1452,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1494,19 +1494,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,67 +1566,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1589,15 +1589,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1616,6 +1607,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1627,6 +1636,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1648,44 +1683,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1694,142 +1694,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2236,10 +2236,10 @@
   <sheetPr/>
   <dimension ref="A1:BQ356"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A250" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="BR1" sqref="BR$1:BS$1048576"/>
+      <selection pane="bottomLeft" activeCell="B265" sqref="B265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -57650,16 +57650,16 @@
         <v>299</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C266" s="9" t="s">
         <v>301</v>
       </c>
       <c r="D266" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="E266" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="E266" s="9" t="s">
-        <v>307</v>
       </c>
       <c r="F266" s="8">
         <v>1327470</v>
@@ -57859,7 +57859,7 @@
         <v>299</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C267" s="9" t="s">
         <v>308</v>
@@ -58068,7 +58068,7 @@
         <v>299</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C268" s="9" t="s">
         <v>308</v>
@@ -58277,7 +58277,7 @@
         <v>299</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C269" s="9" t="s">
         <v>308</v>
@@ -58486,7 +58486,7 @@
         <v>299</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C270" s="9" t="s">
         <v>308</v>
@@ -58695,7 +58695,7 @@
         <v>299</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C271" s="9" t="s">
         <v>313</v>
@@ -58904,7 +58904,7 @@
         <v>299</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C272" s="9" t="s">
         <v>313</v>
@@ -59113,7 +59113,7 @@
         <v>299</v>
       </c>
       <c r="B273" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C273" s="9" t="s">
         <v>313</v>
@@ -59322,7 +59322,7 @@
         <v>299</v>
       </c>
       <c r="B274" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C274" s="9" t="s">
         <v>313</v>
@@ -59531,7 +59531,7 @@
         <v>299</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C275" s="9" t="s">
         <v>313</v>
@@ -59740,7 +59740,7 @@
         <v>299</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C276" s="9" t="s">
         <v>313</v>
@@ -59949,7 +59949,7 @@
         <v>299</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C277" s="9" t="s">
         <v>317</v>
@@ -60158,7 +60158,7 @@
         <v>299</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C278" s="9" t="s">
         <v>320</v>
@@ -60367,7 +60367,7 @@
         <v>299</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C279" s="9" t="s">
         <v>301</v>
@@ -60576,7 +60576,7 @@
         <v>299</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C280" s="9" t="s">
         <v>325</v>
@@ -60785,7 +60785,7 @@
         <v>299</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C281" s="9" t="s">
         <v>325</v>
@@ -60994,7 +60994,7 @@
         <v>299</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C282" s="9" t="s">
         <v>327</v>
@@ -61203,7 +61203,7 @@
         <v>299</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C283" s="9" t="s">
         <v>327</v>
@@ -61412,7 +61412,7 @@
         <v>69</v>
       </c>
       <c r="B284" s="24" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C284" s="9" t="s">
         <v>327</v>
@@ -61621,7 +61621,7 @@
         <v>69</v>
       </c>
       <c r="B285" s="24" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C285" s="9" t="s">
         <v>327</v>
@@ -61830,7 +61830,7 @@
         <v>69</v>
       </c>
       <c r="B286" s="24" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C286" s="9" t="s">
         <v>327</v>
@@ -62039,7 +62039,7 @@
         <v>69</v>
       </c>
       <c r="B287" s="24" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C287" s="9" t="s">
         <v>327</v>
@@ -62248,7 +62248,7 @@
         <v>299</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C288" s="9" t="s">
         <v>327</v>
@@ -62457,7 +62457,7 @@
         <v>299</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C289" s="9" t="s">
         <v>330</v>
@@ -62666,7 +62666,7 @@
         <v>299</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C290" s="8" t="s">
         <v>75</v>
@@ -62875,7 +62875,7 @@
         <v>299</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C291" s="9" t="s">
         <v>334</v>
@@ -63084,7 +63084,7 @@
         <v>299</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C292" s="9" t="s">
         <v>334</v>
@@ -63293,7 +63293,7 @@
         <v>299</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C293" s="9" t="s">
         <v>334</v>
@@ -63502,7 +63502,7 @@
         <v>299</v>
       </c>
       <c r="B294" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C294" s="9" t="s">
         <v>334</v>
@@ -63711,7 +63711,7 @@
         <v>299</v>
       </c>
       <c r="B295" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C295" s="9" t="s">
         <v>334</v>
@@ -63920,7 +63920,7 @@
         <v>299</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C296" s="9" t="s">
         <v>339</v>
@@ -64129,7 +64129,7 @@
         <v>299</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C297" s="8" t="s">
         <v>75</v>
@@ -64338,7 +64338,7 @@
         <v>299</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C298" s="9" t="s">
         <v>344</v>
@@ -64547,7 +64547,7 @@
         <v>299</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C299" s="9" t="s">
         <v>346</v>
@@ -64756,7 +64756,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C300" s="9" t="s">
         <v>346</v>
@@ -64965,7 +64965,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C301" s="9" t="s">
         <v>346</v>
@@ -65174,7 +65174,7 @@
         <v>299</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C302" s="9" t="s">
         <v>346</v>
@@ -65383,7 +65383,7 @@
         <v>299</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C303" s="9" t="s">
         <v>346</v>
@@ -65592,7 +65592,7 @@
         <v>299</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C304" s="9" t="s">
         <v>346</v>
@@ -65801,7 +65801,7 @@
         <v>299</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C305" s="9" t="s">
         <v>346</v>
@@ -66010,7 +66010,7 @@
         <v>299</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C306" s="9" t="s">
         <v>346</v>
@@ -66219,7 +66219,7 @@
         <v>299</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C307" s="9" t="s">
         <v>346</v>
@@ -66428,7 +66428,7 @@
         <v>299</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C308" s="9" t="s">
         <v>346</v>
@@ -66637,7 +66637,7 @@
         <v>299</v>
       </c>
       <c r="B309" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C309" s="9" t="s">
         <v>346</v>
@@ -66846,7 +66846,7 @@
         <v>69</v>
       </c>
       <c r="B310" s="24" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C310" s="9" t="s">
         <v>346</v>
@@ -67055,7 +67055,7 @@
         <v>69</v>
       </c>
       <c r="B311" s="24" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C311" s="9" t="s">
         <v>346</v>
@@ -67264,7 +67264,7 @@
         <v>69</v>
       </c>
       <c r="B312" s="24" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C312" s="9" t="s">
         <v>346</v>
@@ -67473,7 +67473,7 @@
         <v>69</v>
       </c>
       <c r="B313" s="24" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C313" s="9" t="s">
         <v>346</v>
@@ -67682,7 +67682,7 @@
         <v>299</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C314" s="9" t="s">
         <v>349</v>
@@ -67891,7 +67891,7 @@
         <v>299</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C315" s="9" t="s">
         <v>351</v>
@@ -68100,7 +68100,7 @@
         <v>299</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C316" s="9" t="s">
         <v>351</v>
@@ -68309,7 +68309,7 @@
         <v>299</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C317" s="9" t="s">
         <v>351</v>
@@ -68518,7 +68518,7 @@
         <v>299</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C318" s="9" t="s">
         <v>356</v>
@@ -68727,7 +68727,7 @@
         <v>299</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C319" s="9" t="s">
         <v>356</v>
@@ -68936,7 +68936,7 @@
         <v>299</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C320" s="9" t="s">
         <v>356</v>
@@ -69145,7 +69145,7 @@
         <v>299</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C321" s="9" t="s">
         <v>334</v>
@@ -69354,7 +69354,7 @@
         <v>299</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C322" s="9" t="s">
         <v>334</v>
@@ -69563,7 +69563,7 @@
         <v>299</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C323" s="9" t="s">
         <v>325</v>
@@ -69772,7 +69772,7 @@
         <v>299</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C324" s="9" t="s">
         <v>325</v>
@@ -69981,7 +69981,7 @@
         <v>299</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C325" s="9" t="s">
         <v>325</v>
@@ -70190,7 +70190,7 @@
         <v>299</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C326" s="9" t="s">
         <v>368</v>
@@ -70399,7 +70399,7 @@
         <v>299</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C327" s="9" t="s">
         <v>368</v>
@@ -70608,7 +70608,7 @@
         <v>299</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C328" s="9" t="s">
         <v>368</v>
@@ -70817,7 +70817,7 @@
         <v>299</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C329" s="9" t="s">
         <v>368</v>
@@ -71026,7 +71026,7 @@
         <v>299</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C330" s="9" t="s">
         <v>368</v>
@@ -71235,7 +71235,7 @@
         <v>299</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C331" s="9" t="s">
         <v>368</v>
@@ -71444,7 +71444,7 @@
         <v>299</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C332" s="9" t="s">
         <v>368</v>
@@ -71653,7 +71653,7 @@
         <v>299</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C333" s="9" t="s">
         <v>368</v>
@@ -71862,7 +71862,7 @@
         <v>299</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C334" s="9" t="s">
         <v>368</v>
@@ -72071,7 +72071,7 @@
         <v>299</v>
       </c>
       <c r="B335" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C335" s="9" t="s">
         <v>368</v>
@@ -72280,7 +72280,7 @@
         <v>131</v>
       </c>
       <c r="B336" s="24" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C336" s="18" t="s">
         <v>368</v>
@@ -72489,7 +72489,7 @@
         <v>299</v>
       </c>
       <c r="B337" s="20" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C337" s="18" t="s">
         <v>368</v>
@@ -72698,7 +72698,7 @@
         <v>299</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C338" s="9" t="s">
         <v>368</v>
@@ -72907,7 +72907,7 @@
         <v>69</v>
       </c>
       <c r="B339" s="24" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C339" s="9" t="s">
         <v>368</v>
@@ -73116,7 +73116,7 @@
         <v>69</v>
       </c>
       <c r="B340" s="24" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C340" s="9" t="s">
         <v>368</v>
@@ -73325,7 +73325,7 @@
         <v>69</v>
       </c>
       <c r="B341" s="24" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C341" s="9" t="s">
         <v>368</v>
@@ -73534,7 +73534,7 @@
         <v>69</v>
       </c>
       <c r="B342" s="24" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="C342" s="9" t="s">
         <v>368</v>
